--- a/Module3/case_study_1/Checklist Database modul3.xlsx
+++ b/Module3/case_study_1/Checklist Database modul3.xlsx
@@ -209,7 +209,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,12 +340,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,6 +351,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +680,7 @@
   <dimension ref="A1:Z823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C49" sqref="C49:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,32 +695,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="26"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -718,16 +739,16 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -746,10 +767,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -784,8 +805,8 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
@@ -818,8 +839,8 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -852,8 +873,8 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
@@ -886,8 +907,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
@@ -920,8 +941,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -954,8 +975,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -988,8 +1009,8 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
@@ -1022,8 +1043,8 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1370,10 +1391,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="27">
         <v>3</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="28" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1408,8 +1429,8 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1442,8 +1463,8 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1476,8 +1497,8 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1510,8 +1531,8 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1544,8 +1565,8 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1578,8 +1599,8 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1612,8 +1633,8 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1646,8 +1667,8 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1994,10 +2015,10 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="27">
         <v>5</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2032,8 +2053,8 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
@@ -2066,8 +2087,8 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2100,8 +2121,8 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2134,8 +2155,8 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
@@ -2168,8 +2189,8 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="4" t="s">
         <v>26</v>
       </c>
@@ -2202,8 +2223,8 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="4" t="s">
         <v>27</v>
       </c>
@@ -2236,8 +2257,8 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="4" t="s">
         <v>28</v>
       </c>
@@ -2270,8 +2291,8 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="4" t="s">
         <v>21</v>
       </c>
@@ -2312,20 +2333,20 @@
       <c r="B48" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="30">
         <v>1</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2346,20 +2367,20 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2618,10 +2639,10 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="27">
         <v>7</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2656,8 +2677,8 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
@@ -2690,8 +2711,8 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="4" t="s">
         <v>23</v>
       </c>
@@ -2724,8 +2745,8 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
@@ -2758,8 +2779,8 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
@@ -2792,8 +2813,8 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2826,8 +2847,8 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2860,8 +2881,8 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="4" t="s">
         <v>28</v>
       </c>
@@ -2894,8 +2915,8 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="4" t="s">
         <v>21</v>
       </c>
@@ -3242,10 +3263,10 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="27">
         <v>9</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3280,8 +3301,8 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
       <c r="C76" s="4" t="s">
         <v>22</v>
       </c>
@@ -3314,8 +3335,8 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="28"/>
       <c r="C77" s="4" t="s">
         <v>23</v>
       </c>
@@ -3348,8 +3369,8 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="28"/>
       <c r="C78" s="4" t="s">
         <v>24</v>
       </c>
@@ -3382,8 +3403,8 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="4" t="s">
         <v>25</v>
       </c>
@@ -3416,8 +3437,8 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="4" t="s">
         <v>26</v>
       </c>
@@ -3450,8 +3471,8 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="28"/>
       <c r="C81" s="4" t="s">
         <v>27</v>
       </c>
@@ -3484,8 +3505,8 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="28"/>
       <c r="C82" s="4" t="s">
         <v>28</v>
       </c>
@@ -3518,8 +3539,8 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="4" t="s">
         <v>21</v>
       </c>
@@ -3866,10 +3887,10 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23">
+      <c r="A93" s="27">
         <v>11</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="28" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3904,8 +3925,8 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="4" t="s">
         <v>22</v>
       </c>
@@ -3938,8 +3959,8 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="28"/>
       <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
@@ -3972,8 +3993,8 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="4" t="s">
         <v>24</v>
       </c>
@@ -4006,8 +4027,8 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="4" t="s">
         <v>25</v>
       </c>
@@ -4040,8 +4061,8 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="4" t="s">
         <v>26</v>
       </c>
@@ -4074,8 +4095,8 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="4" t="s">
         <v>27</v>
       </c>
@@ -4108,8 +4129,8 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="4" t="s">
         <v>28</v>
       </c>
@@ -4142,8 +4163,8 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="4" t="s">
         <v>21</v>
       </c>
@@ -4490,10 +4511,10 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23">
+      <c r="A111" s="27">
         <v>13</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="B111" s="28" t="s">
         <v>40</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4528,8 +4549,8 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="28"/>
       <c r="C112" s="4" t="s">
         <v>22</v>
       </c>
@@ -4562,8 +4583,8 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="28"/>
       <c r="C113" s="4" t="s">
         <v>23</v>
       </c>
@@ -4596,8 +4617,8 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="28"/>
       <c r="C114" s="4" t="s">
         <v>24</v>
       </c>
@@ -4630,8 +4651,8 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="28"/>
       <c r="C115" s="4" t="s">
         <v>25</v>
       </c>
@@ -4664,8 +4685,8 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="28"/>
       <c r="C116" s="4" t="s">
         <v>26</v>
       </c>
@@ -4698,8 +4719,8 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="4" t="s">
         <v>27</v>
       </c>
@@ -4732,8 +4753,8 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="28"/>
       <c r="C118" s="4" t="s">
         <v>28</v>
       </c>
@@ -4766,8 +4787,8 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="28"/>
       <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
@@ -24575,11 +24596,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="B102:B110"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="B111:B119"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B39:B47"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
@@ -24588,30 +24628,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="A84:A92"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="B102:B110"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="B111:B119"/>
-    <mergeCell ref="A120:A128"/>
-    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Module3/case_study_1/Checklist Database modul3.xlsx
+++ b/Module3/case_study_1/Checklist Database modul3.xlsx
@@ -334,30 +334,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -372,6 +348,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +680,7 @@
   <dimension ref="A1:Z823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:J49"/>
+      <selection activeCell="C50" sqref="C50:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,32 +695,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="24"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -739,16 +739,16 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="24"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -767,10 +767,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -805,8 +805,8 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
@@ -839,8 +839,8 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -873,8 +873,8 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
@@ -907,8 +907,8 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
@@ -941,8 +941,8 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
@@ -975,8 +975,8 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1009,8 +1009,8 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1043,8 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1079,10 +1079,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1117,8 +1117,8 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
@@ -1151,8 +1151,8 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
@@ -1185,8 +1185,8 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
@@ -1219,8 +1219,8 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
@@ -1253,8 +1253,8 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
@@ -1287,8 +1287,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
@@ -1321,8 +1321,8 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="18" t="s">
         <v>28</v>
       </c>
@@ -1355,8 +1355,8 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="18" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1391,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="28">
         <v>3</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1429,8 +1429,8 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
@@ -1463,8 +1463,8 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
@@ -1497,8 +1497,8 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1531,8 +1531,8 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1599,8 +1599,8 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1633,8 +1633,8 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1667,8 +1667,8 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1703,10 +1703,10 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="26">
         <v>4</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -1741,8 +1741,8 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="18" t="s">
         <v>22</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="18" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1809,8 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="18" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +1843,8 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="18" t="s">
         <v>25</v>
       </c>
@@ -1877,8 +1877,8 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="18" t="s">
         <v>26</v>
       </c>
@@ -1911,8 +1911,8 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="18" t="s">
         <v>27</v>
       </c>
@@ -1945,8 +1945,8 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="18" t="s">
         <v>28</v>
       </c>
@@ -1979,8 +1979,8 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="18" t="s">
         <v>21</v>
       </c>
@@ -2015,10 +2015,10 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="28">
         <v>5</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2053,8 +2053,8 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
@@ -2087,8 +2087,8 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2121,8 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
@@ -2155,8 +2155,8 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="4" t="s">
         <v>25</v>
       </c>
@@ -2189,8 +2189,8 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="4" t="s">
         <v>26</v>
       </c>
@@ -2223,8 +2223,8 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="4" t="s">
         <v>27</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="4" t="s">
         <v>28</v>
       </c>
@@ -2291,8 +2291,8 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="4" t="s">
         <v>21</v>
       </c>
@@ -2327,26 +2327,26 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="26">
         <v>6</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="22">
         <v>1</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -2365,22 +2365,22 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="29" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -2399,22 +2399,22 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="18" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -2433,8 +2433,8 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="18" t="s">
         <v>24</v>
       </c>
@@ -2467,8 +2467,8 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="18" t="s">
         <v>25</v>
       </c>
@@ -2501,8 +2501,8 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="18" t="s">
         <v>26</v>
       </c>
@@ -2535,8 +2535,8 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="18" t="s">
         <v>27</v>
       </c>
@@ -2569,8 +2569,8 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="18" t="s">
         <v>28</v>
       </c>
@@ -2603,8 +2603,8 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="18" t="s">
         <v>21</v>
       </c>
@@ -2639,10 +2639,10 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
+      <c r="A57" s="28">
         <v>7</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -2677,8 +2677,8 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="4" t="s">
         <v>22</v>
       </c>
@@ -2711,8 +2711,8 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="4" t="s">
         <v>23</v>
       </c>
@@ -2745,8 +2745,8 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="4" t="s">
         <v>24</v>
       </c>
@@ -2779,8 +2779,8 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="4" t="s">
         <v>25</v>
       </c>
@@ -2813,8 +2813,8 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="28"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2847,8 +2847,8 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2881,8 +2881,8 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="4" t="s">
         <v>28</v>
       </c>
@@ -2915,8 +2915,8 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="4" t="s">
         <v>21</v>
       </c>
@@ -2951,10 +2951,10 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
+      <c r="A66" s="26">
         <v>8</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="18" t="s">
@@ -2989,8 +2989,8 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="18" t="s">
         <v>22</v>
       </c>
@@ -3023,8 +3023,8 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="18" t="s">
         <v>23</v>
       </c>
@@ -3057,8 +3057,8 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="18" t="s">
         <v>24</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="18" t="s">
         <v>25</v>
       </c>
@@ -3125,8 +3125,8 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="18" t="s">
         <v>26</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="18" t="s">
         <v>27</v>
       </c>
@@ -3193,8 +3193,8 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="18" t="s">
         <v>28</v>
       </c>
@@ -3227,8 +3227,8 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="18" t="s">
         <v>21</v>
       </c>
@@ -3263,10 +3263,10 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
+      <c r="A75" s="28">
         <v>9</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -3301,8 +3301,8 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="29"/>
       <c r="C76" s="4" t="s">
         <v>22</v>
       </c>
@@ -3335,8 +3335,8 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="28"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="4" t="s">
         <v>23</v>
       </c>
@@ -3369,8 +3369,8 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="4" t="s">
         <v>24</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="28"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="4" t="s">
         <v>25</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="28"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="29"/>
       <c r="C80" s="4" t="s">
         <v>26</v>
       </c>
@@ -3471,8 +3471,8 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="4" t="s">
         <v>27</v>
       </c>
@@ -3505,8 +3505,8 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="4" t="s">
         <v>28</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="28"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
       <c r="C83" s="4" t="s">
         <v>21</v>
       </c>
@@ -3575,10 +3575,10 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
+      <c r="A84" s="26">
         <v>10</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="18" t="s">
@@ -3613,8 +3613,8 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="22"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
@@ -3647,8 +3647,8 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="18" t="s">
         <v>23</v>
       </c>
@@ -3681,8 +3681,8 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="18" t="s">
         <v>24</v>
       </c>
@@ -3715,8 +3715,8 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="18" t="s">
         <v>25</v>
       </c>
@@ -3749,8 +3749,8 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="18" t="s">
         <v>26</v>
       </c>
@@ -3783,8 +3783,8 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="18" t="s">
         <v>27</v>
       </c>
@@ -3817,8 +3817,8 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="18" t="s">
         <v>28</v>
       </c>
@@ -3851,8 +3851,8 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="22"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="18" t="s">
         <v>21</v>
       </c>
@@ -3887,10 +3887,10 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
+      <c r="A93" s="28">
         <v>11</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -3925,8 +3925,8 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="28"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="4" t="s">
         <v>22</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
@@ -3993,8 +3993,8 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="28"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="4" t="s">
         <v>24</v>
       </c>
@@ -4027,8 +4027,8 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="28"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="4" t="s">
         <v>25</v>
       </c>
@@ -4061,8 +4061,8 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="28"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="4" t="s">
         <v>26</v>
       </c>
@@ -4095,8 +4095,8 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="28"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="4" t="s">
         <v>27</v>
       </c>
@@ -4129,8 +4129,8 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="28"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="4" t="s">
         <v>28</v>
       </c>
@@ -4163,8 +4163,8 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="28"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="4" t="s">
         <v>21</v>
       </c>
@@ -4199,10 +4199,10 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
+      <c r="A102" s="26">
         <v>12</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C102" s="18" t="s">
@@ -4237,8 +4237,8 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="22"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="18" t="s">
         <v>22</v>
       </c>
@@ -4271,8 +4271,8 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="22"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="18" t="s">
         <v>23</v>
       </c>
@@ -4305,8 +4305,8 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="22"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="18" t="s">
         <v>24</v>
       </c>
@@ -4339,8 +4339,8 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="22"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="18" t="s">
         <v>25</v>
       </c>
@@ -4373,8 +4373,8 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="B107" s="22"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="18" t="s">
         <v>26</v>
       </c>
@@ -4407,8 +4407,8 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="22"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="18" t="s">
         <v>27</v>
       </c>
@@ -4441,8 +4441,8 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="22"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="18" t="s">
         <v>28</v>
       </c>
@@ -4475,8 +4475,8 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="18" t="s">
         <v>21</v>
       </c>
@@ -4511,10 +4511,10 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="27">
+      <c r="A111" s="28">
         <v>13</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -4549,8 +4549,8 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="27"/>
-      <c r="B112" s="28"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="4" t="s">
         <v>22</v>
       </c>
@@ -4583,8 +4583,8 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
-      <c r="B113" s="28"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="29"/>
       <c r="C113" s="4" t="s">
         <v>23</v>
       </c>
@@ -4617,8 +4617,8 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
-      <c r="B114" s="28"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="29"/>
       <c r="C114" s="4" t="s">
         <v>24</v>
       </c>
@@ -4651,8 +4651,8 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
-      <c r="B115" s="28"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="29"/>
       <c r="C115" s="4" t="s">
         <v>25</v>
       </c>
@@ -4685,8 +4685,8 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
-      <c r="B116" s="28"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29"/>
       <c r="C116" s="4" t="s">
         <v>26</v>
       </c>
@@ -4719,8 +4719,8 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="27"/>
-      <c r="B117" s="28"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
       <c r="C117" s="4" t="s">
         <v>27</v>
       </c>
@@ -4753,8 +4753,8 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="27"/>
-      <c r="B118" s="28"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="29"/>
       <c r="C118" s="4" t="s">
         <v>28</v>
       </c>
@@ -4787,8 +4787,8 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="27"/>
-      <c r="B119" s="28"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="29"/>
       <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
@@ -4823,10 +4823,10 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
+      <c r="A120" s="26">
         <v>14</v>
       </c>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C120" s="18" t="s">
@@ -4861,8 +4861,8 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
-      <c r="B121" s="22"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="18" t="s">
         <v>22</v>
       </c>
@@ -4895,8 +4895,8 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21"/>
-      <c r="B122" s="22"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="18" t="s">
         <v>23</v>
       </c>
@@ -4929,8 +4929,8 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21"/>
-      <c r="B123" s="22"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="18" t="s">
         <v>24</v>
       </c>
@@ -4963,8 +4963,8 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21"/>
-      <c r="B124" s="22"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="18" t="s">
         <v>25</v>
       </c>
@@ -4997,8 +4997,8 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
-      <c r="B125" s="22"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="18" t="s">
         <v>26</v>
       </c>
@@ -5031,8 +5031,8 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
-      <c r="B126" s="22"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="27"/>
       <c r="C126" s="18" t="s">
         <v>27</v>
       </c>
@@ -5065,8 +5065,8 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="18" t="s">
         <v>28</v>
       </c>
@@ -5099,8 +5099,8 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="21"/>
-      <c r="B128" s="22"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="18" t="s">
         <v>21</v>
       </c>
@@ -24596,30 +24596,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A102:A110"/>
-    <mergeCell ref="B102:B110"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="B111:B119"/>
-    <mergeCell ref="A120:A128"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="A84:A92"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="A66:A74"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
@@ -24628,11 +24609,30 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="A84:A92"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A102:A110"/>
+    <mergeCell ref="B102:B110"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="B111:B119"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="B120:B128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Module3/case_study_1/Checklist Database modul3.xlsx
+++ b/Module3/case_study_1/Checklist Database modul3.xlsx
@@ -680,7 +680,7 @@
   <dimension ref="A1:Z823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:J50"/>
+      <selection activeCell="C55" sqref="C55:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,20 +2435,20 @@
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="27"/>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -2469,20 +2469,20 @@
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="27"/>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -2503,20 +2503,20 @@
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="27"/>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -2537,20 +2537,20 @@
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -2571,20 +2571,20 @@
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
